--- a/LianAgentPortal/wwwroot/mau-upload-dai-ly-lian/mau-upload-dai-ly-lian-tndsbb-oto-v4.xlsx
+++ b/LianAgentPortal/wwwroot/mau-upload-dai-ly-lian/mau-upload-dai-ly-lian-tndsbb-oto-v4.xlsx
@@ -1650,7 +1650,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1793,7 +1793,7 @@
         <v>45292</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>170</v>
@@ -1837,7 +1837,7 @@
         <v>45292</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>171</v>
@@ -1879,6 +1879,9 @@
       </c>
       <c r="L5" s="2">
         <v>45292</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>172</v>
@@ -1896,7 +1899,7 @@
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>1</formula1>
-      <formula2>3</formula2>
+      <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
